--- a/pythonProject1/marks.xlsx
+++ b/pythonProject1/marks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Дата</t>
   </si>
@@ -31,13 +31,31 @@
     <t>2023-04-25 18:37</t>
   </si>
   <si>
+    <t>2023-11-27 18:08</t>
+  </si>
+  <si>
     <t>2023-04-25 18:54</t>
   </si>
   <si>
     <t>2023-04-25 19:08</t>
   </si>
   <si>
+    <t>2023-11-30 16:07</t>
+  </si>
+  <si>
+    <t>2023-11-30 16:08</t>
+  </si>
+  <si>
     <t>2023-04-25 19:04</t>
+  </si>
+  <si>
+    <t>2023-11-27 20:28</t>
+  </si>
+  <si>
+    <t>2023-11-30 15:51</t>
+  </si>
+  <si>
+    <t>2023-11-30 15:52</t>
   </si>
 </sst>
 </file>
@@ -399,80 +417,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -489,10 +433,55 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -500,15 +489,92 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
